--- a/Certification/ADsP/1. 정리(해커스)/(해커스) ADsP 평가문항_220207.xlsx
+++ b/Certification/ADsP/1. 정리(해커스)/(해커스) ADsP 평가문항_220207.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20382"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\기업\KEB하나은행\★★★★ 2022\ADsP, SQLD 제안_220117\ADsP_22년 교육_220204\ADsP 평가문항\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Quick_Ref\Certification\ADsP\1. 정리(해커스)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303065E9-7147-4A54-A894-08761E5CC3C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17910" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="문항" sheetId="1" r:id="rId1"/>
     <sheet name="답안" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -710,10 +709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(가)는 데이터 분석 프로젝트는 다양한 전문가가 참여하므로 (가)의 식별과 관리가 필요하다. 분석 프로젝트의 영역별 주요 관리 항목인 (가)로 가장 적절한 것은?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기업 내외부 환경을 포괄하고 있는 비즈니스 모델이라는 틀을 활용하여 비즈니스 모델 기반 문제 탐색단계에서 사용하는 도구로 가장 부적절한 것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,19 +853,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터분석 수준진단의 분석 성숙도에 있어 분석을 진화시켜서 혁신 및 성과 향상에 기여는 어느 단계에 해당하는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 분석 수준진단의 분석 성숙도에 있어 분석을 시작하여 환경과 시스템을 구축은 어느 단계에 해당하는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 분석 수준진단의 분석 성숙도에 있어 분석 결과를 실제 업무에 적용은 어느 단계에 해당하는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 분석을 위한 3가지 조직 구조 중 전사 분석업무를 별도의 분석전담 조직에서 담당하고 현업 업무부서의 분석업무와 이중 및 이원화 가능성이 높은 구조로 가장 적절한 것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -981,10 +968,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>표본추출방법 중 일부 집락을 랜덤으로 선택하고 선택된 각 집락에서 표본을 임의로 선택하는 방법은 무엇인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>귀무가설이 옳지 않은데도 귀무가설을 채택하게 되는 오류로 가장 적절한 것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1037,10 +1020,6 @@
   </si>
   <si>
     <t>측정방법 중 구간척도의 예로 가장 적절한 것은?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정방법 중 비율척도의 예로 가장 적절한 것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1145,10 +1124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포트폴리오 사분면 분석에 있어 '난이도' 기준으로 분석과제 우선순위 선정 순으로 가장 적절한 것은?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포트폴리오 사분면 분석에 있어 가장 우선적으로 분석 과제 적용이 필요한 영역은 무엇인가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1158,10 +1133,6 @@
   </si>
   <si>
     <t>분석과제 관리를 위한 5가지 주요 영역으로는 데이터 복잡성, 데이터 크기, 정확도/정밀도, 분석 복잡성, 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분석 관점에서의 사분면 분석 중 기업에서 활용하는 분석업무, 기법 등은 부족하지만 적용조직 등 준비도가 높아 바로 도입할 수 있는 기업에 해당되는 것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1200,13 +1171,41 @@
   </si>
   <si>
     <t>처리 방법으로는 단순대치법과 다중 대치법이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(가)는 데이터 분석 프로젝트는 다양한 전문가가 참여하므로 (가)의 식별과 관리가 필요하다. 분석 프로젝트의 영역별 주요 관리 항목인 (가)로 가장 적절한 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 사분면 분석에 있어 '난이도' 기준으로 분석과제 우선순위 선정 순으로 가장 적절한 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터분석 수준진단의 분석 성숙도에 있어 분석을 진화시켜서 혁신 및 성과 향상에 기여는 어느 단계에 해당하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석을 위한 3가지 조직 구조 중 전사 분석업무를 별도의 분석전담 조직에서 담당하고 현업 업무부서의 분석업무와 중복 및 이원화 가능성이 높은 구조로 가장 적절한 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 관점에서의 사분면 분석 중 기업에서 활용하는 분석업무, 기법 등은 부족하지만 적용조직 등 준비도가 높아 바로 도입할 수 있는 기업에 해당되는 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본추출방법 중 일부 집락을 랜덤으로 선택하고 선택된 각 집락에서 표본을 임의로 선택하는 방법은 무엇인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정방법 중 비율척도의 예로 가장 적절한 것은?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1273,7 +1272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1283,6 +1282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,7 +1321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,22 +1340,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,6 +1369,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1467,23 +1487,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1519,23 +1522,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1711,17 +1697,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="165" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98" style="19" customWidth="1"/>
     <col min="3" max="6" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1729,17 +1715,17 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1756,1503 +1742,1503 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C30" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C38" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+    <row r="42" spans="1:6" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>56</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>57</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>58</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>41</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="C60" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>59</v>
+      </c>
+      <c r="B61" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>42</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="C61" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>60</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>61</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>62</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>43</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>44</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>45</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>46</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>47</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>48</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>49</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>50</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>51</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>52</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>53</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>54</v>
-      </c>
-      <c r="B56" s="8" t="s">
+      <c r="C64" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>63</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>64</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>65</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>66</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>67</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>55</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="C69" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>68</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>56</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>57</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
-        <v>58</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>59</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
-        <v>60</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
-        <v>61</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>62</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>63</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>64</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
-        <v>65</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
-        <v>66</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="C70" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E68" s="9" t="s">
+      <c r="E70" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F70" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>69</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>70</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>71</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>72</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>73</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>67</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
-        <v>68</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
-        <v>69</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
-        <v>70</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D72" s="9" t="s">
+      <c r="C75" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="D75" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="E75" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
-        <v>71</v>
-      </c>
-      <c r="B73" s="8" t="s">
+      <c r="F75" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>74</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
-        <v>72</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="D76" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
-        <v>73</v>
-      </c>
-      <c r="B75" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
-        <v>74</v>
-      </c>
-      <c r="B76" s="8" t="s">
+    </row>
+    <row r="77" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>75</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
-        <v>75</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>247</v>
+      <c r="C77" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +3252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9863168E-DD56-4603-BAF7-8866AE1694CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3281,846 +3267,846 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>250</v>
+      <c r="C5" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>3</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>4</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>3</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="11">
         <v>4</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="14">
         <v>2</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="14">
         <v>3</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="14">
         <v>1</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="14">
         <v>3</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="14">
         <v>4</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>3</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="11">
         <v>4</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>1</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="11">
         <v>3</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="11">
         <v>4</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="11">
         <v>2</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="11">
         <v>4</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="11">
         <v>2</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="11">
         <v>4</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="11">
         <v>2</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>3</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="11">
         <v>3</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="11">
         <v>1</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="11">
         <v>2</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="11">
         <v>3</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>1</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="11">
         <v>2</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <v>4</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="11">
         <v>2</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="11">
         <v>4</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="11">
         <v>1</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="11">
         <v>2</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="11">
         <v>2</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="10">
         <v>48</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="11">
         <v>3</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
+      <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="11">
         <v>4</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="11">
         <v>1</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>168</v>
+      <c r="C52" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
+      <c r="A53" s="10">
         <v>51</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="11">
         <v>3</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>173</v>
+      <c r="C53" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
+      <c r="A54" s="10">
         <v>52</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="11">
         <v>4</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>267</v>
+      <c r="C54" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
+      <c r="A55" s="10">
         <v>53</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="11">
         <v>1</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>182</v>
+      <c r="C55" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+      <c r="A56" s="10">
         <v>54</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="11">
         <v>3</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>187</v>
+      <c r="C56" s="15" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
+      <c r="A57" s="10">
         <v>55</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="11">
         <v>3</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>192</v>
+      <c r="C57" s="15" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+      <c r="A58" s="10">
         <v>56</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>197</v>
+      <c r="C58" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
+      <c r="A59" s="10">
         <v>57</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="11">
         <v>2</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>197</v>
+      <c r="C59" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
+      <c r="A60" s="10">
         <v>58</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="11">
         <v>4</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>197</v>
+      <c r="C60" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
+      <c r="A61" s="10">
         <v>59</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="11">
         <v>1</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>270</v>
+      <c r="C61" s="15" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+      <c r="A62" s="10">
         <v>60</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="11">
         <v>2</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>270</v>
+      <c r="C62" s="15" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
+      <c r="A63" s="10">
         <v>61</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="11">
         <v>1</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>212</v>
+      <c r="C63" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
+      <c r="A64" s="10">
         <v>62</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="11">
         <v>4</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>212</v>
+      <c r="C64" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A65" s="13">
+      <c r="A65" s="10">
         <v>63</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="11">
         <v>3</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>212</v>
+      <c r="C65" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
+      <c r="A66" s="10">
         <v>64</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="11">
         <v>2</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>263</v>
+      <c r="C66" s="15" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A67" s="13">
+      <c r="A67" s="10">
         <v>65</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="11">
         <v>3</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>263</v>
+      <c r="C67" s="15" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
+      <c r="A68" s="10">
         <v>66</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="11">
         <v>1</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>224</v>
+      <c r="C68" s="15" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
+      <c r="A69" s="10">
         <v>67</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="11">
         <v>1</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>257</v>
+      <c r="C69" s="15" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
+      <c r="A70" s="10">
         <v>68</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="11">
         <v>2</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>258</v>
+      <c r="C70" s="15" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A71" s="13">
+      <c r="A71" s="10">
         <v>69</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="11">
         <v>4</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>258</v>
+      <c r="C71" s="15" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
+      <c r="A72" s="10">
         <v>70</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="11">
         <v>2</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>234</v>
+      <c r="C72" s="15" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A73" s="13">
+      <c r="A73" s="10">
         <v>71</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="11">
         <v>1</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>240</v>
+      <c r="C73" s="15" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
+      <c r="A74" s="10">
         <v>72</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="11">
         <v>3</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>240</v>
+      <c r="C74" s="15" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="48" x14ac:dyDescent="0.3">
-      <c r="A75" s="13">
+      <c r="A75" s="10">
         <v>73</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="11">
         <v>4</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>240</v>
+      <c r="C75" s="15" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
+      <c r="A76" s="10">
         <v>74</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="11">
         <v>1</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>249</v>
+      <c r="C76" s="15" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A77" s="13">
+      <c r="A77" s="10">
         <v>75</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="11">
         <v>4</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>249</v>
+      <c r="C77" s="15" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
